--- a/database - circanual/percentage offspring/LL-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/LL-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,23 +434,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>7.881773399014778</v>
+      </c>
+      <c r="C2">
+        <v>2.463054187192118</v>
+      </c>
+      <c r="D2">
+        <v>4.433497536945813</v>
+      </c>
+      <c r="E2">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="F2">
+        <v>12.80788177339902</v>
+      </c>
+      <c r="G2">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="H2">
+        <v>8.866995073891626</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>10.83743842364532</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>12.80788177339902</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>10.83743842364532</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>8.374384236453201</v>
+      </c>
+      <c r="M2">
+        <v>3.448275862068965</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -459,38 +480,44 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.64367816091954</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="C3">
-        <v>19.54022988505747</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="D3">
-        <v>5.747126436781609</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="E3">
-        <v>3.448275862068965</v>
+        <v>6.349206349206349</v>
+      </c>
+      <c r="F3">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G3">
+        <v>9.126984126984127</v>
       </c>
       <c r="H3">
-        <v>4.597701149425287</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I3">
-        <v>6.896551724137931</v>
+        <v>8.730158730158729</v>
       </c>
       <c r="J3">
-        <v>9.195402298850574</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="K3">
-        <v>16.09195402298851</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L3">
-        <v>6.896551724137931</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M3">
-        <v>14.94252873563219</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -499,35 +526,38 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14.92537313432836</v>
+      </c>
+      <c r="C4">
+        <v>13.43283582089552</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>5.970149253731343</v>
       </c>
       <c r="F4">
-        <v>8.333333333333332</v>
+        <v>4.477611940298507</v>
+      </c>
+      <c r="G4">
+        <v>10.44776119402985</v>
+      </c>
+      <c r="H4">
+        <v>11.94029850746269</v>
       </c>
       <c r="I4">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="J4">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="K4">
-        <v>23.33333333333333</v>
+        <v>5.970149253731343</v>
       </c>
       <c r="L4">
-        <v>11.66666666666667</v>
+        <v>5.970149253731343</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>16.41791044776119</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -536,29 +566,44 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15.78947368421053</v>
+        <v>14.15929203539823</v>
+      </c>
+      <c r="C5">
+        <v>9.734513274336283</v>
+      </c>
+      <c r="D5">
+        <v>11.50442477876106</v>
       </c>
       <c r="E5">
-        <v>15.78947368421053</v>
+        <v>10.61946902654867</v>
       </c>
       <c r="F5">
-        <v>15.78947368421053</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="G5">
-        <v>15.78947368421053</v>
+        <v>2.654867256637168</v>
+      </c>
+      <c r="H5">
+        <v>7.964601769911504</v>
+      </c>
+      <c r="I5">
+        <v>4.424778761061947</v>
       </c>
       <c r="J5">
-        <v>10.52631578947368</v>
+        <v>7.079646017699115</v>
+      </c>
+      <c r="K5">
+        <v>4.424778761061947</v>
       </c>
       <c r="L5">
-        <v>10.52631578947368</v>
+        <v>11.50442477876106</v>
       </c>
       <c r="M5">
-        <v>15.78947368421053</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -567,32 +612,44 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15.15151515151515</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C6">
-        <v>15.15151515151515</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>12.12121212121212</v>
+        <v>7.5</v>
+      </c>
+      <c r="F6">
+        <v>8.5</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>9.090909090909092</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>9.090909090909092</v>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>7.5</v>
       </c>
       <c r="K6">
-        <v>12.12121212121212</v>
+        <v>8.5</v>
       </c>
       <c r="L6">
-        <v>12.12121212121212</v>
+        <v>11.5</v>
       </c>
       <c r="M6">
-        <v>15.15151515151515</v>
+        <v>16</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -600,9 +657,45 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>10.04784688995215</v>
+      </c>
+      <c r="C7">
+        <v>8.612440191387559</v>
+      </c>
+      <c r="D7">
+        <v>11.48325358851675</v>
+      </c>
+      <c r="E7">
+        <v>9.569377990430622</v>
+      </c>
+      <c r="F7">
+        <v>8.133971291866029</v>
+      </c>
+      <c r="G7">
+        <v>6.220095693779904</v>
+      </c>
+      <c r="H7">
+        <v>8.133971291866029</v>
+      </c>
+      <c r="I7">
+        <v>3.827751196172249</v>
+      </c>
+      <c r="J7">
+        <v>5.741626794258373</v>
+      </c>
+      <c r="K7">
+        <v>4.784688995215311</v>
+      </c>
+      <c r="L7">
+        <v>14.35406698564593</v>
+      </c>
+      <c r="M7">
+        <v>9.090909090909092</v>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -611,38 +704,44 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.8433734939759</v>
+        <v>4.705882352941177</v>
+      </c>
+      <c r="C8">
+        <v>7.058823529411764</v>
       </c>
       <c r="D8">
-        <v>4.819277108433735</v>
+        <v>16.47058823529412</v>
       </c>
       <c r="E8">
-        <v>6.024096385542169</v>
+        <v>8.235294117647058</v>
+      </c>
+      <c r="F8">
+        <v>7.058823529411764</v>
       </c>
       <c r="G8">
-        <v>4.819277108433735</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="H8">
-        <v>8.433734939759036</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="I8">
-        <v>10.8433734939759</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="J8">
-        <v>9.638554216867471</v>
+        <v>4.705882352941177</v>
       </c>
       <c r="K8">
-        <v>21.68674698795181</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L8">
-        <v>10.8433734939759</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="M8">
-        <v>12.04819277108434</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -651,44 +750,44 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.41666666666667</v>
+        <v>12.25490196078431</v>
       </c>
       <c r="C9">
-        <v>10.41666666666667</v>
+        <v>6.372549019607843</v>
       </c>
       <c r="D9">
-        <v>8.333333333333332</v>
+        <v>10.29411764705882</v>
       </c>
       <c r="E9">
-        <v>10.41666666666667</v>
+        <v>9.313725490196079</v>
       </c>
       <c r="F9">
-        <v>10.41666666666667</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="G9">
-        <v>6.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="H9">
-        <v>8.333333333333332</v>
+        <v>6.372549019607843</v>
       </c>
       <c r="I9">
-        <v>6.25</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="J9">
-        <v>6.25</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="K9">
-        <v>8.333333333333332</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L9">
-        <v>12.5</v>
+        <v>7.352941176470589</v>
       </c>
       <c r="M9">
-        <v>2.083333333333333</v>
+        <v>9.313725490196079</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -697,44 +796,29 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12.04819277108434</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="C10">
-        <v>6.024096385542169</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="D10">
-        <v>9.638554216867471</v>
-      </c>
-      <c r="E10">
-        <v>7.228915662650602</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="F10">
-        <v>7.228915662650602</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="G10">
-        <v>8.433734939759036</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="H10">
-        <v>4.819277108433735</v>
-      </c>
-      <c r="I10">
-        <v>13.25301204819277</v>
-      </c>
-      <c r="J10">
-        <v>9.638554216867471</v>
-      </c>
-      <c r="K10">
-        <v>9.638554216867471</v>
-      </c>
-      <c r="L10">
-        <v>4.819277108433735</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="M10">
-        <v>7.228915662650602</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -743,44 +827,44 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.040201005025125</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="C11">
-        <v>9.045226130653267</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="D11">
-        <v>4.522613065326634</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="E11">
-        <v>4.020100502512562</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="F11">
-        <v>5.527638190954774</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="G11">
-        <v>8.040201005025125</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="H11">
-        <v>9.045226130653267</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="I11">
-        <v>8.040201005025125</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="J11">
-        <v>11.55778894472362</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="K11">
-        <v>10.55276381909548</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="L11">
-        <v>12.56281407035176</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="M11">
-        <v>9.045226130653267</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -789,38 +873,44 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11.88118811881188</v>
+        <v>10.08771929824561</v>
       </c>
       <c r="C12">
-        <v>16.83168316831683</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="D12">
-        <v>16.83168316831683</v>
+        <v>10.08771929824561</v>
       </c>
       <c r="E12">
-        <v>8.91089108910891</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F12">
-        <v>7.920792079207921</v>
+        <v>9.649122807017543</v>
       </c>
       <c r="G12">
-        <v>7.920792079207921</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H12">
-        <v>8.91089108910891</v>
+        <v>7.456140350877193</v>
       </c>
       <c r="I12">
-        <v>7.920792079207921</v>
+        <v>11.40350877192982</v>
+      </c>
+      <c r="J12">
+        <v>10.52631578947368</v>
       </c>
       <c r="K12">
-        <v>4.95049504950495</v>
+        <v>6.578947368421052</v>
+      </c>
+      <c r="L12">
+        <v>5.701754385964912</v>
       </c>
       <c r="M12">
-        <v>7.920792079207921</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -829,44 +919,44 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.201680672268908</v>
+        <v>8.653846153846153</v>
       </c>
       <c r="C13">
-        <v>7.563025210084033</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="D13">
-        <v>2.521008403361344</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="E13">
-        <v>10.92436974789916</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="F13">
-        <v>10.08403361344538</v>
+        <v>10.8974358974359</v>
       </c>
       <c r="G13">
-        <v>5.88235294117647</v>
+        <v>10.8974358974359</v>
       </c>
       <c r="H13">
-        <v>10.08403361344538</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="I13">
-        <v>8.403361344537815</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="J13">
-        <v>12.60504201680672</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="K13">
-        <v>5.042016806722689</v>
+        <v>9.294871794871796</v>
       </c>
       <c r="L13">
-        <v>9.243697478991598</v>
+        <v>9.935897435897436</v>
       </c>
       <c r="M13">
-        <v>13.4453781512605</v>
+        <v>6.41025641025641</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -875,44 +965,44 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>10.41666666666667</v>
+        <v>4.624277456647398</v>
       </c>
       <c r="C14">
-        <v>5.208333333333334</v>
+        <v>4.624277456647398</v>
       </c>
       <c r="D14">
-        <v>4.166666666666666</v>
+        <v>4.624277456647398</v>
       </c>
       <c r="E14">
-        <v>9.375</v>
+        <v>9.248554913294797</v>
       </c>
       <c r="F14">
-        <v>12.5</v>
+        <v>8.092485549132949</v>
       </c>
       <c r="G14">
-        <v>4.166666666666666</v>
+        <v>12.71676300578035</v>
       </c>
       <c r="H14">
-        <v>4.166666666666666</v>
+        <v>12.13872832369942</v>
       </c>
       <c r="I14">
-        <v>6.25</v>
+        <v>8.670520231213873</v>
       </c>
       <c r="J14">
-        <v>14.58333333333333</v>
+        <v>11.5606936416185</v>
       </c>
       <c r="K14">
-        <v>11.45833333333333</v>
+        <v>9.248554913294797</v>
       </c>
       <c r="L14">
-        <v>14.58333333333333</v>
+        <v>9.248554913294797</v>
       </c>
       <c r="M14">
-        <v>3.125</v>
+        <v>5.202312138728324</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -921,44 +1011,41 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>11.9047619047619</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="C15">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D15">
-        <v>5.555555555555555</v>
+        <v>13.81578947368421</v>
       </c>
       <c r="E15">
-        <v>6.349206349206349</v>
+        <v>3.289473684210526</v>
       </c>
       <c r="F15">
-        <v>7.142857142857142</v>
+        <v>3.289473684210526</v>
       </c>
       <c r="G15">
-        <v>9.126984126984127</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H15">
-        <v>5.555555555555555</v>
+        <v>13.81578947368421</v>
       </c>
       <c r="I15">
-        <v>8.730158730158729</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="J15">
-        <v>6.349206349206349</v>
+        <v>11.18421052631579</v>
       </c>
       <c r="K15">
-        <v>9.523809523809524</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="L15">
-        <v>8.333333333333332</v>
+        <v>7.236842105263158</v>
       </c>
       <c r="M15">
-        <v>10.31746031746032</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -967,38 +1054,44 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>14.92537313432836</v>
+        <v>10.21897810218978</v>
       </c>
       <c r="C16">
-        <v>13.43283582089552</v>
+        <v>4.37956204379562</v>
       </c>
       <c r="D16">
-        <v>10.44776119402985</v>
+        <v>5.839416058394161</v>
       </c>
       <c r="E16">
-        <v>5.970149253731343</v>
+        <v>8.02919708029197</v>
       </c>
       <c r="F16">
-        <v>4.477611940298507</v>
+        <v>8.759124087591241</v>
       </c>
       <c r="G16">
-        <v>10.44776119402985</v>
+        <v>16.05839416058394</v>
       </c>
       <c r="H16">
-        <v>11.94029850746269</v>
+        <v>6.569343065693431</v>
       </c>
       <c r="I16">
-        <v>5.970149253731343</v>
+        <v>16.05839416058394</v>
+      </c>
+      <c r="J16">
+        <v>2.91970802919708</v>
+      </c>
+      <c r="K16">
+        <v>8.759124087591241</v>
       </c>
       <c r="L16">
-        <v>5.970149253731343</v>
+        <v>5.109489051094891</v>
       </c>
       <c r="M16">
-        <v>16.41791044776119</v>
+        <v>7.2992700729927</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1007,44 +1100,44 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>14.15929203539823</v>
+        <v>8.522727272727272</v>
       </c>
       <c r="C17">
-        <v>9.734513274336283</v>
+        <v>8.522727272727272</v>
       </c>
       <c r="D17">
-        <v>11.50442477876106</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="E17">
-        <v>10.61946902654867</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="F17">
-        <v>7.964601769911504</v>
+        <v>6.25</v>
       </c>
       <c r="G17">
-        <v>2.654867256637168</v>
+        <v>8.522727272727272</v>
       </c>
       <c r="H17">
-        <v>7.964601769911504</v>
+        <v>14.20454545454546</v>
       </c>
       <c r="I17">
-        <v>4.424778761061947</v>
+        <v>8.522727272727272</v>
       </c>
       <c r="J17">
-        <v>7.079646017699115</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="K17">
-        <v>4.424778761061947</v>
+        <v>7.386363636363637</v>
       </c>
       <c r="L17">
-        <v>11.50442477876106</v>
+        <v>5.681818181818182</v>
       </c>
       <c r="M17">
-        <v>7.964601769911504</v>
+        <v>8.522727272727272</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1053,44 +1146,35 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>7.000000000000001</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13.5593220338983</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>15.25423728813559</v>
       </c>
       <c r="E18">
-        <v>7.5</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="F18">
-        <v>8.5</v>
-      </c>
-      <c r="G18">
-        <v>2.5</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
+        <v>13.5593220338983</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="K18">
-        <v>8.5</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="L18">
-        <v>11.5</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>16.94915254237288</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1099,44 +1183,44 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>10.04784688995215</v>
+        <v>5.980066445182724</v>
       </c>
       <c r="C19">
-        <v>8.612440191387559</v>
+        <v>12.62458471760797</v>
       </c>
       <c r="D19">
-        <v>11.48325358851675</v>
+        <v>7.973421926910299</v>
       </c>
       <c r="E19">
-        <v>9.569377990430622</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="F19">
-        <v>8.133971291866029</v>
+        <v>8.305647840531561</v>
       </c>
       <c r="G19">
-        <v>6.220095693779904</v>
+        <v>10.96345514950166</v>
       </c>
       <c r="H19">
-        <v>8.133971291866029</v>
+        <v>4.318936877076411</v>
       </c>
       <c r="I19">
-        <v>3.827751196172249</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="J19">
-        <v>5.741626794258373</v>
+        <v>4.983388704318937</v>
       </c>
       <c r="K19">
-        <v>4.784688995215311</v>
+        <v>8.305647840531561</v>
       </c>
       <c r="L19">
-        <v>14.35406698564593</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="M19">
-        <v>9.090909090909092</v>
+        <v>8.637873754152823</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1145,44 +1229,44 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>4.705882352941177</v>
+        <v>4.568527918781726</v>
       </c>
       <c r="C20">
-        <v>7.058823529411764</v>
+        <v>6.598984771573605</v>
       </c>
       <c r="D20">
-        <v>16.47058823529412</v>
+        <v>5.583756345177665</v>
       </c>
       <c r="E20">
-        <v>8.235294117647058</v>
+        <v>8.121827411167512</v>
       </c>
       <c r="F20">
-        <v>7.058823529411764</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="G20">
-        <v>7.058823529411764</v>
+        <v>15.22842639593909</v>
       </c>
       <c r="H20">
-        <v>7.058823529411764</v>
+        <v>9.137055837563452</v>
       </c>
       <c r="I20">
-        <v>5.88235294117647</v>
+        <v>8.629441624365482</v>
       </c>
       <c r="J20">
-        <v>4.705882352941177</v>
+        <v>11.16751269035533</v>
       </c>
       <c r="K20">
-        <v>11.76470588235294</v>
+        <v>5.583756345177665</v>
       </c>
       <c r="L20">
-        <v>5.88235294117647</v>
+        <v>8.629441624365482</v>
       </c>
       <c r="M20">
-        <v>14.11764705882353</v>
+        <v>5.076142131979696</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1191,44 +1275,44 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>12.25490196078431</v>
+        <v>3.934426229508197</v>
       </c>
       <c r="C21">
-        <v>6.372549019607843</v>
+        <v>10.49180327868852</v>
       </c>
       <c r="D21">
-        <v>10.29411764705882</v>
+        <v>13.60655737704918</v>
       </c>
       <c r="E21">
-        <v>9.313725490196079</v>
+        <v>10.98360655737705</v>
       </c>
       <c r="F21">
-        <v>4.411764705882353</v>
+        <v>11.14754098360656</v>
       </c>
       <c r="G21">
-        <v>5.88235294117647</v>
+        <v>12.13114754098361</v>
       </c>
       <c r="H21">
-        <v>6.372549019607843</v>
+        <v>12.29508196721311</v>
       </c>
       <c r="I21">
-        <v>9.803921568627452</v>
+        <v>7.868852459016394</v>
       </c>
       <c r="J21">
-        <v>8.823529411764707</v>
+        <v>5.573770491803279</v>
       </c>
       <c r="K21">
-        <v>9.803921568627452</v>
+        <v>5.245901639344262</v>
       </c>
       <c r="L21">
-        <v>7.352941176470589</v>
+        <v>3.442622950819672</v>
       </c>
       <c r="M21">
-        <v>9.313725490196079</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1237,29 +1321,44 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>6.896551724137931</v>
+        <v>2.67314702308627</v>
       </c>
       <c r="C22">
-        <v>17.24137931034483</v>
+        <v>9.963547995139733</v>
       </c>
       <c r="D22">
-        <v>20.68965517241379</v>
+        <v>9.720534629404618</v>
+      </c>
+      <c r="E22">
+        <v>12.27217496962333</v>
       </c>
       <c r="F22">
-        <v>17.24137931034483</v>
+        <v>11.42162818955043</v>
       </c>
       <c r="G22">
-        <v>17.24137931034483</v>
+        <v>11.17861482381531</v>
       </c>
       <c r="H22">
-        <v>10.3448275862069</v>
+        <v>10.44957472660996</v>
+      </c>
+      <c r="I22">
+        <v>8.991494532199271</v>
+      </c>
+      <c r="J22">
+        <v>7.290400972053463</v>
+      </c>
+      <c r="K22">
+        <v>6.682867557715674</v>
+      </c>
+      <c r="L22">
+        <v>4.738760631834751</v>
       </c>
       <c r="M22">
-        <v>10.3448275862069</v>
+        <v>4.617253948967194</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1268,44 +1367,44 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>4.57516339869281</v>
+        <v>5.541871921182266</v>
       </c>
       <c r="C23">
-        <v>3.92156862745098</v>
+        <v>8.374384236453201</v>
       </c>
       <c r="D23">
-        <v>7.18954248366013</v>
+        <v>9.60591133004926</v>
       </c>
       <c r="E23">
-        <v>13.0718954248366</v>
+        <v>11.33004926108374</v>
       </c>
       <c r="F23">
-        <v>16.99346405228758</v>
+        <v>9.729064039408868</v>
       </c>
       <c r="G23">
-        <v>7.84313725490196</v>
+        <v>7.881773399014778</v>
       </c>
       <c r="H23">
-        <v>4.57516339869281</v>
+        <v>6.65024630541872</v>
       </c>
       <c r="I23">
-        <v>9.15032679738562</v>
+        <v>9.35960591133005</v>
       </c>
       <c r="J23">
-        <v>10.45751633986928</v>
+        <v>9.852216748768473</v>
       </c>
       <c r="K23">
-        <v>9.15032679738562</v>
+        <v>8.74384236453202</v>
       </c>
       <c r="L23">
-        <v>4.57516339869281</v>
+        <v>6.157635467980295</v>
       </c>
       <c r="M23">
-        <v>8.496732026143791</v>
+        <v>6.773399014778326</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1314,44 +1413,44 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>9.6</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="C24">
-        <v>9.6</v>
+        <v>7.342995169082125</v>
       </c>
       <c r="D24">
-        <v>5.600000000000001</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>6.376811594202898</v>
       </c>
       <c r="F24">
-        <v>7.199999999999999</v>
+        <v>8.309178743961352</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>9.855072463768117</v>
       </c>
       <c r="H24">
-        <v>4.8</v>
+        <v>11.20772946859903</v>
       </c>
       <c r="I24">
-        <v>13.6</v>
+        <v>11.01449275362319</v>
       </c>
       <c r="J24">
-        <v>10.4</v>
+        <v>9.661835748792271</v>
       </c>
       <c r="K24">
-        <v>8.799999999999999</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="M24">
-        <v>6.4</v>
+        <v>6.473429951690821</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1459,44 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>9.338521400778211</v>
+        <v>5.244755244755245</v>
       </c>
       <c r="C25">
-        <v>6.22568093385214</v>
+        <v>3.496503496503497</v>
       </c>
       <c r="D25">
-        <v>7.392996108949417</v>
+        <v>2.797202797202797</v>
       </c>
       <c r="E25">
-        <v>8.171206225680933</v>
+        <v>2.447552447552447</v>
       </c>
       <c r="F25">
-        <v>8.560311284046692</v>
+        <v>4.895104895104895</v>
       </c>
       <c r="G25">
-        <v>12.84046692607004</v>
+        <v>10.13986013986014</v>
       </c>
       <c r="H25">
-        <v>9.338521400778211</v>
+        <v>12.93706293706294</v>
       </c>
       <c r="I25">
-        <v>8.171206225680933</v>
+        <v>14.68531468531468</v>
       </c>
       <c r="J25">
-        <v>4.669260700389105</v>
+        <v>17.83216783216783</v>
       </c>
       <c r="K25">
-        <v>9.338521400778211</v>
+        <v>9.79020979020979</v>
       </c>
       <c r="L25">
-        <v>9.338521400778211</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M25">
-        <v>6.614785992217899</v>
+        <v>8.041958041958042</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1406,44 +1505,44 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>11.56462585034014</v>
       </c>
       <c r="C26">
-        <v>2.857142857142857</v>
+        <v>8.843537414965986</v>
       </c>
       <c r="D26">
-        <v>4.642857142857143</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>10.8843537414966</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="G26">
-        <v>11.42857142857143</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="H26">
-        <v>12.5</v>
+        <v>2.72108843537415</v>
       </c>
       <c r="I26">
-        <v>11.07142857142857</v>
+        <v>12.24489795918367</v>
       </c>
       <c r="J26">
-        <v>11.42857142857143</v>
+        <v>11.56462585034014</v>
       </c>
       <c r="K26">
-        <v>9.642857142857144</v>
+        <v>6.802721088435375</v>
       </c>
       <c r="L26">
-        <v>6.785714285714286</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="M26">
-        <v>4.642857142857143</v>
+        <v>8.843537414965986</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1451,42 +1550,9 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>9.210526315789473</v>
-      </c>
-      <c r="C27">
-        <v>13.81578947368421</v>
-      </c>
-      <c r="E27">
-        <v>3.289473684210526</v>
-      </c>
-      <c r="F27">
-        <v>3.289473684210526</v>
-      </c>
-      <c r="G27">
-        <v>3.947368421052631</v>
-      </c>
-      <c r="H27">
-        <v>13.81578947368421</v>
-      </c>
-      <c r="I27">
-        <v>14.47368421052632</v>
-      </c>
-      <c r="J27">
-        <v>11.18421052631579</v>
-      </c>
-      <c r="K27">
-        <v>9.210526315789473</v>
-      </c>
-      <c r="L27">
-        <v>7.236842105263158</v>
-      </c>
-      <c r="M27">
-        <v>10.52631578947368</v>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1494,45 +1560,27 @@
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28">
-        <v>10.21897810218978</v>
-      </c>
       <c r="C28">
-        <v>4.37956204379562</v>
-      </c>
-      <c r="D28">
-        <v>5.839416058394161</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="E28">
-        <v>8.02919708029197</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="F28">
-        <v>8.759124087591241</v>
-      </c>
-      <c r="G28">
-        <v>16.05839416058394</v>
-      </c>
-      <c r="H28">
-        <v>6.569343065693431</v>
-      </c>
-      <c r="I28">
-        <v>16.05839416058394</v>
-      </c>
-      <c r="J28">
-        <v>2.91970802919708</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="K28">
-        <v>8.759124087591241</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L28">
-        <v>5.109489051094891</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="M28">
-        <v>7.2992700729927</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1541,44 +1589,44 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>8.522727272727272</v>
+        <v>9.349593495934959</v>
       </c>
       <c r="C29">
-        <v>8.522727272727272</v>
+        <v>9.349593495934959</v>
       </c>
       <c r="D29">
-        <v>7.954545454545454</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="E29">
-        <v>7.954545454545454</v>
+        <v>8.943089430894309</v>
       </c>
       <c r="F29">
-        <v>6.25</v>
+        <v>8.943089430894309</v>
       </c>
       <c r="G29">
-        <v>8.522727272727272</v>
+        <v>7.723577235772358</v>
       </c>
       <c r="H29">
-        <v>14.20454545454546</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="I29">
-        <v>8.522727272727272</v>
+        <v>7.723577235772358</v>
       </c>
       <c r="J29">
-        <v>7.954545454545454</v>
+        <v>6.504065040650407</v>
       </c>
       <c r="K29">
-        <v>7.386363636363637</v>
+        <v>10.97560975609756</v>
       </c>
       <c r="L29">
-        <v>5.681818181818182</v>
+        <v>6.910569105691057</v>
       </c>
       <c r="M29">
-        <v>8.522727272727272</v>
+        <v>6.504065040650407</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1587,35 +1635,44 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>10.16949152542373</v>
+        <v>8.116883116883116</v>
       </c>
       <c r="C30">
-        <v>13.5593220338983</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="D30">
-        <v>15.25423728813559</v>
+        <v>8.116883116883116</v>
       </c>
       <c r="E30">
-        <v>6.779661016949152</v>
+        <v>8.116883116883116</v>
       </c>
       <c r="F30">
-        <v>13.5593220338983</v>
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G30">
+        <v>8.441558441558442</v>
+      </c>
+      <c r="H30">
+        <v>6.818181818181817</v>
+      </c>
+      <c r="I30">
+        <v>5.844155844155844</v>
       </c>
       <c r="J30">
-        <v>6.779661016949152</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="K30">
-        <v>10.16949152542373</v>
+        <v>11.03896103896104</v>
       </c>
       <c r="L30">
-        <v>6.779661016949152</v>
+        <v>12.33766233766234</v>
       </c>
       <c r="M30">
-        <v>16.94915254237288</v>
+        <v>10.06493506493507</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1624,44 +1681,44 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>5.980066445182724</v>
+        <v>14.79289940828402</v>
       </c>
       <c r="C31">
-        <v>12.62458471760797</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D31">
-        <v>7.973421926910299</v>
+        <v>6.21301775147929</v>
       </c>
       <c r="E31">
-        <v>11.62790697674419</v>
+        <v>8.284023668639055</v>
       </c>
       <c r="F31">
-        <v>8.305647840531561</v>
+        <v>8.579881656804734</v>
       </c>
       <c r="G31">
-        <v>10.96345514950166</v>
+        <v>11.24260355029586</v>
       </c>
       <c r="H31">
-        <v>4.318936877076411</v>
+        <v>7.100591715976331</v>
       </c>
       <c r="I31">
-        <v>9.302325581395349</v>
+        <v>5.325443786982249</v>
       </c>
       <c r="J31">
-        <v>4.983388704318937</v>
+        <v>5.621301775147929</v>
       </c>
       <c r="K31">
-        <v>8.305647840531561</v>
+        <v>8.875739644970414</v>
       </c>
       <c r="L31">
-        <v>6.976744186046512</v>
+        <v>9.171597633136095</v>
       </c>
       <c r="M31">
-        <v>8.637873754152823</v>
+        <v>7.100591715976331</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1670,44 +1727,44 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>4.568527918781726</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="C32">
-        <v>6.598984771573605</v>
+        <v>5.238095238095238</v>
       </c>
       <c r="D32">
-        <v>5.583756345177665</v>
+        <v>8.095238095238095</v>
       </c>
       <c r="E32">
-        <v>8.121827411167512</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="F32">
-        <v>11.6751269035533</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>15.22842639593909</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>9.137055837563452</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="I32">
-        <v>8.629441624365482</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J32">
-        <v>11.16751269035533</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="K32">
-        <v>5.583756345177665</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L32">
-        <v>8.629441624365482</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="M32">
-        <v>5.076142131979696</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1716,44 +1773,44 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>3.934426229508197</v>
+        <v>12.3015873015873</v>
       </c>
       <c r="C33">
-        <v>10.49180327868852</v>
+        <v>9.920634920634921</v>
       </c>
       <c r="D33">
-        <v>13.60655737704918</v>
+        <v>8.730158730158729</v>
       </c>
       <c r="E33">
-        <v>10.98360655737705</v>
+        <v>11.50793650793651</v>
       </c>
       <c r="F33">
-        <v>11.14754098360656</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="G33">
-        <v>12.13114754098361</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H33">
-        <v>12.29508196721311</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="I33">
-        <v>7.868852459016394</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="J33">
-        <v>5.573770491803279</v>
+        <v>8.730158730158729</v>
       </c>
       <c r="K33">
-        <v>5.245901639344262</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="L33">
-        <v>3.442622950819672</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="M33">
-        <v>3.278688524590164</v>
+        <v>4.365079365079365</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1762,44 +1819,44 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>2.67314702308627</v>
+        <v>6.282722513089005</v>
       </c>
       <c r="C34">
-        <v>9.963547995139733</v>
+        <v>8.37696335078534</v>
       </c>
       <c r="D34">
-        <v>9.720534629404618</v>
+        <v>9.947643979057592</v>
       </c>
       <c r="E34">
-        <v>12.27217496962333</v>
+        <v>8.37696335078534</v>
       </c>
       <c r="F34">
-        <v>11.42162818955043</v>
+        <v>9.424083769633508</v>
       </c>
       <c r="G34">
-        <v>11.17861482381531</v>
+        <v>7.853403141361256</v>
       </c>
       <c r="H34">
-        <v>10.44957472660996</v>
+        <v>5.235602094240837</v>
       </c>
       <c r="I34">
-        <v>8.991494532199271</v>
+        <v>9.947643979057592</v>
       </c>
       <c r="J34">
-        <v>7.290400972053463</v>
+        <v>11.51832460732984</v>
       </c>
       <c r="K34">
-        <v>6.682867557715674</v>
+        <v>5.235602094240837</v>
       </c>
       <c r="L34">
-        <v>4.738760631834751</v>
+        <v>8.900523560209423</v>
       </c>
       <c r="M34">
-        <v>4.617253948967194</v>
+        <v>8.900523560209423</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1808,44 +1865,44 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>4.395604395604396</v>
+        <v>9.018567639257293</v>
       </c>
       <c r="C35">
-        <v>8.424908424908425</v>
+        <v>3.978779840848806</v>
       </c>
       <c r="D35">
-        <v>13.18681318681319</v>
+        <v>8.753315649867375</v>
       </c>
       <c r="E35">
-        <v>13.18681318681319</v>
+        <v>11.14058355437666</v>
       </c>
       <c r="F35">
-        <v>11.17216117216117</v>
+        <v>9.018567639257293</v>
       </c>
       <c r="G35">
-        <v>8.424908424908425</v>
+        <v>9.283819628647215</v>
       </c>
       <c r="H35">
-        <v>5.311355311355311</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="I35">
-        <v>8.058608058608058</v>
+        <v>10.61007957559682</v>
       </c>
       <c r="J35">
-        <v>9.340659340659341</v>
+        <v>6.631299734748011</v>
       </c>
       <c r="K35">
-        <v>7.692307692307693</v>
+        <v>7.957559681697612</v>
       </c>
       <c r="L35">
-        <v>4.212454212454213</v>
+        <v>8.753315649867375</v>
       </c>
       <c r="M35">
-        <v>6.593406593406594</v>
+        <v>7.957559681697612</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1854,44 +1911,44 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>7.790549169859514</v>
+        <v>11.06194690265487</v>
       </c>
       <c r="C36">
-        <v>6.513409961685824</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="D36">
-        <v>9.067688378033207</v>
+        <v>6.637168141592921</v>
       </c>
       <c r="E36">
-        <v>7.790549169859514</v>
+        <v>5.752212389380531</v>
       </c>
       <c r="F36">
-        <v>10.08939974457216</v>
+        <v>7.079646017699115</v>
       </c>
       <c r="G36">
-        <v>11.23882503192848</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="H36">
-        <v>10.98339719029374</v>
+        <v>9.292035398230089</v>
       </c>
       <c r="I36">
-        <v>10.3448275862069</v>
+        <v>9.292035398230089</v>
       </c>
       <c r="J36">
-        <v>8.173690932311622</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="K36">
-        <v>6.130268199233716</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="L36">
-        <v>5.236270753512133</v>
+        <v>10.17699115044248</v>
       </c>
       <c r="M36">
-        <v>6.641123882503193</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1899,45 +1956,18 @@
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37">
-        <v>7.303370786516854</v>
-      </c>
-      <c r="C37">
-        <v>2.808988764044944</v>
-      </c>
-      <c r="D37">
-        <v>2.528089887640449</v>
-      </c>
-      <c r="E37">
-        <v>4.49438202247191</v>
-      </c>
-      <c r="F37">
-        <v>7.865168539325842</v>
-      </c>
-      <c r="G37">
-        <v>10.67415730337079</v>
-      </c>
       <c r="H37">
-        <v>10.67415730337079</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="I37">
-        <v>12.64044943820225</v>
-      </c>
-      <c r="J37">
-        <v>16.01123595505618</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="K37">
-        <v>9.269662921348315</v>
-      </c>
-      <c r="L37">
-        <v>8.146067415730338</v>
-      </c>
-      <c r="M37">
-        <v>7.584269662921349</v>
+        <v>50</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1946,44 +1976,44 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>7.017543859649122</v>
+        <v>10.07194244604317</v>
       </c>
       <c r="C38">
-        <v>10.52631578947368</v>
+        <v>6.474820143884892</v>
       </c>
       <c r="D38">
-        <v>3.508771929824561</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="E38">
-        <v>10.52631578947368</v>
+        <v>5.035971223021583</v>
       </c>
       <c r="F38">
-        <v>8.771929824561402</v>
+        <v>6.474820143884892</v>
       </c>
       <c r="G38">
-        <v>5.263157894736842</v>
+        <v>3.597122302158273</v>
       </c>
       <c r="H38">
-        <v>7.017543859649122</v>
+        <v>6.474820143884892</v>
       </c>
       <c r="I38">
-        <v>10.52631578947368</v>
+        <v>14.38848920863309</v>
       </c>
       <c r="J38">
-        <v>8.771929824561402</v>
+        <v>14.38848920863309</v>
       </c>
       <c r="K38">
-        <v>8.771929824561402</v>
+        <v>12.23021582733813</v>
       </c>
       <c r="L38">
-        <v>8.771929824561402</v>
+        <v>12.23021582733813</v>
       </c>
       <c r="M38">
-        <v>10.52631578947368</v>
+        <v>7.194244604316546</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -1991,9 +2021,45 @@
       <c r="A39">
         <v>2</v>
       </c>
+      <c r="B39">
+        <v>8.157099697885197</v>
+      </c>
+      <c r="C39">
+        <v>4.833836858006042</v>
+      </c>
+      <c r="D39">
+        <v>7.552870090634441</v>
+      </c>
+      <c r="E39">
+        <v>6.344410876132931</v>
+      </c>
+      <c r="F39">
+        <v>5.13595166163142</v>
+      </c>
+      <c r="G39">
+        <v>6.042296072507553</v>
+      </c>
+      <c r="H39">
+        <v>8.761329305135952</v>
+      </c>
+      <c r="I39">
+        <v>9.667673716012084</v>
+      </c>
+      <c r="J39">
+        <v>12.68882175226586</v>
+      </c>
+      <c r="K39">
+        <v>9.667673716012084</v>
+      </c>
+      <c r="L39">
+        <v>10.27190332326284</v>
+      </c>
+      <c r="M39">
+        <v>10.8761329305136</v>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2001,27 +2067,45 @@
       <c r="A40">
         <v>3</v>
       </c>
+      <c r="B40">
+        <v>7.589285714285714</v>
+      </c>
       <c r="C40">
-        <v>11.11111111111111</v>
+        <v>8.482142857142858</v>
+      </c>
+      <c r="D40">
+        <v>6.101190476190476</v>
       </c>
       <c r="E40">
-        <v>11.11111111111111</v>
+        <v>4.910714285714286</v>
       </c>
       <c r="F40">
-        <v>22.22222222222222</v>
+        <v>5.654761904761905</v>
+      </c>
+      <c r="G40">
+        <v>7.440476190476191</v>
+      </c>
+      <c r="H40">
+        <v>9.375</v>
+      </c>
+      <c r="I40">
+        <v>11.60714285714286</v>
+      </c>
+      <c r="J40">
+        <v>10.86309523809524</v>
       </c>
       <c r="K40">
-        <v>11.11111111111111</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="L40">
-        <v>33.33333333333333</v>
+        <v>6.99404761904762</v>
       </c>
       <c r="M40">
-        <v>11.11111111111111</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2030,44 +2114,44 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>9.349593495934959</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="C41">
-        <v>9.349593495934959</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D41">
-        <v>8.536585365853659</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="E41">
-        <v>8.943089430894309</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="F41">
-        <v>8.943089430894309</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="G41">
-        <v>7.723577235772358</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="H41">
-        <v>8.536585365853659</v>
+        <v>6.376811594202898</v>
       </c>
       <c r="I41">
-        <v>7.723577235772358</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="J41">
-        <v>6.504065040650407</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="K41">
-        <v>10.97560975609756</v>
+        <v>9.855072463768117</v>
       </c>
       <c r="L41">
-        <v>6.910569105691057</v>
+        <v>7.536231884057972</v>
       </c>
       <c r="M41">
-        <v>6.504065040650407</v>
+        <v>10.43478260869565</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2076,44 +2160,44 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>6.666666666666667</v>
+        <v>8.445945945945946</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>5.743243243243244</v>
       </c>
       <c r="D42">
-        <v>7.083333333333333</v>
+        <v>9.797297297297296</v>
       </c>
       <c r="E42">
-        <v>7.5</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="F42">
-        <v>8.333333333333332</v>
+        <v>10.47297297297297</v>
       </c>
       <c r="G42">
-        <v>9.166666666666666</v>
+        <v>6.418918918918918</v>
       </c>
       <c r="H42">
-        <v>7.5</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="I42">
-        <v>7.5</v>
+        <v>7.094594594594595</v>
       </c>
       <c r="J42">
-        <v>4.583333333333333</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="K42">
-        <v>11.25</v>
+        <v>13.85135135135135</v>
       </c>
       <c r="L42">
-        <v>11.66666666666667</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="M42">
-        <v>8.75</v>
+        <v>9.797297297297296</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2122,44 +2206,44 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>12.28813559322034</v>
+        <v>12.05673758865248</v>
       </c>
       <c r="C43">
-        <v>7.627118644067797</v>
+        <v>9.929078014184398</v>
       </c>
       <c r="D43">
-        <v>4.661016949152542</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="E43">
-        <v>11.4406779661017</v>
+        <v>5.673758865248227</v>
       </c>
       <c r="F43">
-        <v>8.474576271186439</v>
+        <v>7.092198581560284</v>
       </c>
       <c r="G43">
-        <v>13.13559322033898</v>
+        <v>5.673758865248227</v>
       </c>
       <c r="H43">
-        <v>9.745762711864407</v>
+        <v>7.801418439716312</v>
       </c>
       <c r="I43">
-        <v>5.084745762711865</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="J43">
-        <v>8.050847457627118</v>
+        <v>12.05673758865248</v>
       </c>
       <c r="K43">
-        <v>8.898305084745763</v>
+        <v>12.05673758865248</v>
       </c>
       <c r="L43">
-        <v>5.084745762711865</v>
+        <v>9.929078014184398</v>
       </c>
       <c r="M43">
-        <v>5.508474576271186</v>
+        <v>7.092198581560284</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2168,44 +2252,41 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>7.142857142857142</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="C44">
-        <v>5.238095238095238</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D44">
-        <v>8.095238095238095</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="E44">
-        <v>8.571428571428571</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H44">
-        <v>11.9047619047619</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="I44">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="J44">
-        <v>9.523809523809524</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K44">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L44">
-        <v>9.047619047619047</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="M44">
-        <v>6.666666666666667</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2214,44 +2295,44 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>12.3015873015873</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="C45">
-        <v>9.920634920634921</v>
+        <v>12.91866028708134</v>
       </c>
       <c r="D45">
-        <v>8.730158730158729</v>
+        <v>10.04784688995215</v>
       </c>
       <c r="E45">
-        <v>11.50793650793651</v>
+        <v>11.96172248803828</v>
       </c>
       <c r="F45">
-        <v>7.936507936507936</v>
+        <v>7.655502392344498</v>
       </c>
       <c r="G45">
-        <v>7.142857142857142</v>
+        <v>11.48325358851675</v>
       </c>
       <c r="H45">
-        <v>9.523809523809524</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I45">
-        <v>7.936507936507936</v>
+        <v>8.612440191387559</v>
       </c>
       <c r="J45">
-        <v>8.730158730158729</v>
+        <v>5.741626794258373</v>
       </c>
       <c r="K45">
-        <v>5.952380952380952</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L45">
-        <v>5.952380952380952</v>
+        <v>4.30622009569378</v>
       </c>
       <c r="M45">
-        <v>4.365079365079365</v>
+        <v>2.392344497607656</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2260,44 +2341,44 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>6.282722513089005</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="C46">
-        <v>8.37696335078534</v>
+        <v>6.25</v>
       </c>
       <c r="D46">
-        <v>9.947643979057592</v>
+        <v>6.985294117647059</v>
       </c>
       <c r="E46">
-        <v>8.37696335078534</v>
+        <v>7.720588235294118</v>
       </c>
       <c r="F46">
-        <v>9.424083769633508</v>
+        <v>10.66176470588235</v>
       </c>
       <c r="G46">
-        <v>7.853403141361256</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H46">
-        <v>5.235602094240837</v>
+        <v>6.985294117647059</v>
       </c>
       <c r="I46">
-        <v>9.947643979057592</v>
+        <v>12.86764705882353</v>
       </c>
       <c r="J46">
-        <v>11.51832460732984</v>
+        <v>11.39705882352941</v>
       </c>
       <c r="K46">
-        <v>5.235602094240837</v>
+        <v>8.088235294117647</v>
       </c>
       <c r="L46">
-        <v>8.900523560209423</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="M46">
-        <v>8.900523560209423</v>
+        <v>5.514705882352941</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2306,44 +2387,44 @@
         <v>10</v>
       </c>
       <c r="B47">
-        <v>8.553654743390357</v>
+        <v>3.319502074688797</v>
       </c>
       <c r="C47">
-        <v>5.754276827371696</v>
+        <v>2.904564315352697</v>
       </c>
       <c r="D47">
-        <v>6.065318818040436</v>
+        <v>9.95850622406639</v>
       </c>
       <c r="E47">
-        <v>9.642301710730948</v>
+        <v>7.053941908713693</v>
       </c>
       <c r="F47">
-        <v>8.087091757387247</v>
+        <v>15.76763485477178</v>
       </c>
       <c r="G47">
-        <v>8.242612752721618</v>
+        <v>14.52282157676349</v>
       </c>
       <c r="H47">
-        <v>7.931570762052877</v>
+        <v>16.18257261410788</v>
       </c>
       <c r="I47">
-        <v>11.19751166407465</v>
+        <v>9.54356846473029</v>
       </c>
       <c r="J47">
-        <v>8.398133748055987</v>
+        <v>2.904564315352697</v>
       </c>
       <c r="K47">
-        <v>9.175738724727839</v>
+        <v>8.298755186721991</v>
       </c>
       <c r="L47">
-        <v>9.331259720062208</v>
+        <v>2.074688796680498</v>
       </c>
       <c r="M47">
-        <v>7.620528771384137</v>
+        <v>7.468879668049793</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2352,44 +2433,44 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>9.508716323296355</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>8.55784469096672</v>
+        <v>5.666666666666666</v>
       </c>
       <c r="D48">
-        <v>4.754358161648177</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E48">
-        <v>4.595879556259905</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>6.180665610142631</v>
+        <v>15</v>
       </c>
       <c r="G48">
-        <v>6.497622820919176</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H48">
-        <v>10.14263074484944</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="I48">
-        <v>10.77654516640254</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="J48">
-        <v>10.61806656101426</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="K48">
-        <v>10.77654516640254</v>
+        <v>7.666666666666666</v>
       </c>
       <c r="L48">
-        <v>9.8256735340729</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>7.765451664025356</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2397,18 +2478,45 @@
       <c r="A49">
         <v>12</v>
       </c>
+      <c r="B49">
+        <v>3.611111111111111</v>
+      </c>
+      <c r="C49">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D49">
+        <v>8.055555555555555</v>
+      </c>
+      <c r="E49">
+        <v>8.055555555555555</v>
+      </c>
+      <c r="F49">
+        <v>10.27777777777778</v>
+      </c>
+      <c r="G49">
+        <v>15.27777777777778</v>
+      </c>
       <c r="H49">
-        <v>34.61538461538461</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I49">
-        <v>38.46153846153847</v>
+        <v>11.66666666666667</v>
+      </c>
+      <c r="J49">
+        <v>11.11111111111111</v>
       </c>
       <c r="K49">
-        <v>26.92307692307692</v>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L49">
+        <v>6.111111111111111</v>
+      </c>
+      <c r="M49">
+        <v>5.555555555555555</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2417,41 +2525,44 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>9.604519774011299</v>
+        <v>8.917197452229299</v>
       </c>
       <c r="C50">
-        <v>6.214689265536723</v>
+        <v>3.821656050955414</v>
       </c>
       <c r="D50">
-        <v>3.389830508474576</v>
+        <v>7.643312101910828</v>
       </c>
       <c r="E50">
-        <v>7.344632768361582</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="F50">
-        <v>8.474576271186439</v>
+        <v>8.280254777070063</v>
+      </c>
+      <c r="G50">
+        <v>5.095541401273886</v>
       </c>
       <c r="H50">
-        <v>2.824858757062147</v>
+        <v>5.095541401273886</v>
       </c>
       <c r="I50">
-        <v>15.25423728813559</v>
+        <v>4.45859872611465</v>
       </c>
       <c r="J50">
-        <v>12.99435028248588</v>
+        <v>20.38216560509554</v>
       </c>
       <c r="K50">
-        <v>10.16949152542373</v>
+        <v>17.19745222929936</v>
       </c>
       <c r="L50">
-        <v>15.25423728813559</v>
+        <v>10.82802547770701</v>
       </c>
       <c r="M50">
-        <v>8.474576271186439</v>
+        <v>7.643312101910828</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2460,44 +2571,44 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>7.540983606557377</v>
+        <v>9.843400447427292</v>
       </c>
       <c r="C51">
-        <v>5.245901639344262</v>
+        <v>8.724832214765101</v>
       </c>
       <c r="D51">
-        <v>6.229508196721312</v>
+        <v>8.277404921700224</v>
       </c>
       <c r="E51">
-        <v>6.885245901639345</v>
+        <v>4.47427293064877</v>
       </c>
       <c r="F51">
-        <v>5.573770491803279</v>
+        <v>8.277404921700224</v>
       </c>
       <c r="G51">
-        <v>6.557377049180328</v>
+        <v>5.145413870246085</v>
       </c>
       <c r="H51">
-        <v>9.508196721311474</v>
+        <v>5.369127516778524</v>
       </c>
       <c r="I51">
-        <v>10.49180327868852</v>
+        <v>2.460850111856823</v>
       </c>
       <c r="J51">
-        <v>12.45901639344262</v>
+        <v>13.42281879194631</v>
       </c>
       <c r="K51">
-        <v>9.180327868852459</v>
+        <v>11.6331096196868</v>
       </c>
       <c r="L51">
-        <v>9.508196721311474</v>
+        <v>13.64653243847875</v>
       </c>
       <c r="M51">
-        <v>10.81967213114754</v>
+        <v>8.724832214765101</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2506,44 +2617,44 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>6.932409012131716</v>
+        <v>9.202453987730062</v>
       </c>
       <c r="C52">
-        <v>8.31889081455806</v>
+        <v>2.45398773006135</v>
       </c>
       <c r="D52">
-        <v>5.025996533795494</v>
+        <v>8.588957055214724</v>
       </c>
       <c r="E52">
-        <v>4.332755632582322</v>
+        <v>5.521472392638037</v>
       </c>
       <c r="F52">
-        <v>4.679376083188909</v>
+        <v>7.361963190184049</v>
       </c>
       <c r="G52">
-        <v>8.31889081455806</v>
+        <v>5.828220858895705</v>
       </c>
       <c r="H52">
-        <v>9.532062391681109</v>
+        <v>3.680981595092025</v>
       </c>
       <c r="I52">
-        <v>12.99826689774697</v>
+        <v>3.067484662576687</v>
       </c>
       <c r="J52">
-        <v>11.78509532062392</v>
+        <v>15.95092024539877</v>
       </c>
       <c r="K52">
-        <v>12.65164644714038</v>
+        <v>11.34969325153374</v>
       </c>
       <c r="L52">
-        <v>6.239168110918544</v>
+        <v>14.41717791411043</v>
       </c>
       <c r="M52">
-        <v>9.185441941074524</v>
+        <v>12.57668711656442</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2552,44 +2663,44 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>12.42937853107345</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="C53">
-        <v>5.649717514124294</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D53">
-        <v>5.084745762711865</v>
+        <v>7.065217391304348</v>
       </c>
       <c r="E53">
-        <v>7.344632768361582</v>
+        <v>8.423913043478262</v>
       </c>
       <c r="F53">
-        <v>8.474576271186439</v>
+        <v>5.163043478260869</v>
       </c>
       <c r="G53">
-        <v>6.779661016949152</v>
+        <v>3.260869565217391</v>
       </c>
       <c r="H53">
-        <v>2.259887005649718</v>
+        <v>7.065217391304348</v>
       </c>
       <c r="I53">
-        <v>5.649717514124294</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="J53">
-        <v>12.99435028248588</v>
+        <v>8.967391304347826</v>
       </c>
       <c r="K53">
-        <v>14.68926553672316</v>
+        <v>11.14130434782609</v>
       </c>
       <c r="L53">
-        <v>10.16949152542373</v>
+        <v>11.68478260869565</v>
       </c>
       <c r="M53">
-        <v>8.474576271186439</v>
+        <v>12.22826086956522</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2598,44 +2709,44 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>9.315068493150685</v>
+        <v>10.69767441860465</v>
       </c>
       <c r="C54">
-        <v>6.849315068493151</v>
+        <v>8.372093023255815</v>
       </c>
       <c r="D54">
-        <v>10.13698630136986</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="E54">
-        <v>5.753424657534246</v>
+        <v>6.511627906976744</v>
       </c>
       <c r="F54">
-        <v>9.04109589041096</v>
+        <v>6.046511627906977</v>
       </c>
       <c r="G54">
-        <v>6.301369863013699</v>
+        <v>3.255813953488372</v>
       </c>
       <c r="H54">
-        <v>4.657534246575342</v>
+        <v>6.511627906976744</v>
       </c>
       <c r="I54">
-        <v>5.753424657534246</v>
+        <v>7.441860465116279</v>
       </c>
       <c r="J54">
-        <v>5.47945205479452</v>
+        <v>7.906976744186046</v>
       </c>
       <c r="K54">
-        <v>13.42465753424658</v>
+        <v>11.16279069767442</v>
       </c>
       <c r="L54">
-        <v>12.6027397260274</v>
+        <v>11.16279069767442</v>
       </c>
       <c r="M54">
-        <v>10.68493150684932</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2644,44 +2755,44 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>15.63786008230453</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="C55">
-        <v>9.053497942386832</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="D55">
-        <v>7.818930041152264</v>
+        <v>14.36170212765958</v>
       </c>
       <c r="E55">
-        <v>3.703703703703703</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="F55">
-        <v>7.818930041152264</v>
+        <v>16.48936170212766</v>
       </c>
       <c r="G55">
-        <v>6.172839506172839</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="H55">
-        <v>4.938271604938271</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="I55">
-        <v>4.938271604938271</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="J55">
-        <v>6.995884773662551</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="K55">
-        <v>10.69958847736626</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="L55">
-        <v>13.58024691358025</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="M55">
-        <v>8.641975308641975</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2690,41 +2801,44 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>9.230769230769232</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="C56">
-        <v>7.692307692307693</v>
+        <v>9.349593495934959</v>
       </c>
       <c r="D56">
-        <v>9.230769230769232</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="E56">
-        <v>9.230769230769232</v>
+        <v>7.723577235772358</v>
       </c>
       <c r="F56">
-        <v>9.230769230769232</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="G56">
-        <v>7.692307692307693</v>
+        <v>6.910569105691057</v>
       </c>
       <c r="H56">
-        <v>9.230769230769232</v>
+        <v>8.130081300813007</v>
       </c>
       <c r="I56">
-        <v>7.692307692307693</v>
+        <v>8.130081300813007</v>
+      </c>
+      <c r="J56">
+        <v>8.536585365853659</v>
       </c>
       <c r="K56">
-        <v>7.692307692307693</v>
+        <v>6.910569105691057</v>
       </c>
       <c r="L56">
-        <v>9.230769230769232</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="M56">
-        <v>13.84615384615385</v>
+        <v>11.38211382113821</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2733,44 +2847,44 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>10.52631578947368</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C57">
-        <v>12.91866028708134</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="D57">
-        <v>10.04784688995215</v>
+        <v>5.2</v>
       </c>
       <c r="E57">
-        <v>11.96172248803828</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="F57">
-        <v>7.655502392344498</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>11.48325358851675</v>
+        <v>12.8</v>
       </c>
       <c r="H57">
-        <v>9.090909090909092</v>
+        <v>12.4</v>
       </c>
       <c r="I57">
-        <v>8.612440191387559</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J57">
-        <v>5.741626794258373</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="K57">
-        <v>5.263157894736842</v>
+        <v>8.4</v>
       </c>
       <c r="L57">
-        <v>4.30622009569378</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="M57">
-        <v>2.392344497607656</v>
+        <v>6</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2779,44 +2893,44 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>3.825136612021858</v>
+        <v>6.25</v>
       </c>
       <c r="C58">
-        <v>3.825136612021858</v>
+        <v>0.78125</v>
       </c>
       <c r="D58">
-        <v>6.557377049180328</v>
+        <v>3.125</v>
       </c>
       <c r="E58">
-        <v>6.557377049180328</v>
+        <v>10.15625</v>
       </c>
       <c r="F58">
-        <v>9.289617486338798</v>
+        <v>14.84375</v>
       </c>
       <c r="G58">
-        <v>13.66120218579235</v>
+        <v>14.84375</v>
       </c>
       <c r="H58">
-        <v>7.650273224043716</v>
+        <v>16.40625</v>
       </c>
       <c r="I58">
-        <v>13.66120218579235</v>
+        <v>17.96875</v>
       </c>
       <c r="J58">
-        <v>11.47540983606557</v>
+        <v>8.59375</v>
       </c>
       <c r="K58">
-        <v>10.38251366120219</v>
+        <v>3.125</v>
       </c>
       <c r="L58">
-        <v>4.918032786885246</v>
+        <v>3.125</v>
       </c>
       <c r="M58">
-        <v>8.196721311475409</v>
+        <v>0.78125</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2825,44 +2939,44 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <v>4.065040650406504</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="C59">
-        <v>3.252032520325204</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="D59">
-        <v>4.878048780487805</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="E59">
-        <v>8.943089430894309</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="F59">
-        <v>20.32520325203252</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="G59">
-        <v>13.82113821138211</v>
+        <v>16.23931623931624</v>
       </c>
       <c r="H59">
-        <v>12.19512195121951</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I59">
-        <v>4.065040650406504</v>
+        <v>13.67521367521368</v>
       </c>
       <c r="J59">
-        <v>5.691056910569105</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="K59">
-        <v>13.82113821138211</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="L59">
-        <v>1.626016260162602</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="M59">
-        <v>7.317073170731707</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2871,44 +2985,44 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>0.4854368932038834</v>
       </c>
       <c r="C60">
-        <v>5.666666666666666</v>
+        <v>2.427184466019417</v>
       </c>
       <c r="D60">
-        <v>9.666666666666666</v>
+        <v>5.339805825242718</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>9.708737864077669</v>
       </c>
       <c r="F60">
-        <v>15</v>
+        <v>11.6504854368932</v>
       </c>
       <c r="G60">
-        <v>11.33333333333333</v>
+        <v>10.67961165048544</v>
       </c>
       <c r="H60">
-        <v>7.333333333333333</v>
+        <v>10.19417475728155</v>
       </c>
       <c r="I60">
-        <v>8.333333333333332</v>
+        <v>12.62135922330097</v>
       </c>
       <c r="J60">
-        <v>8.333333333333332</v>
+        <v>17.96116504854369</v>
       </c>
       <c r="K60">
-        <v>7.666666666666666</v>
+        <v>8.25242718446602</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>4.368932038834951</v>
       </c>
       <c r="M60">
-        <v>4.666666666666667</v>
+        <v>6.310679611650485</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2917,44 +3031,41 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="C61">
-        <v>6.666666666666667</v>
+        <v>6.164383561643835</v>
       </c>
       <c r="D61">
-        <v>8.055555555555555</v>
+        <v>8.904109589041095</v>
       </c>
       <c r="E61">
-        <v>8.055555555555555</v>
+        <v>10.27397260273973</v>
       </c>
       <c r="F61">
-        <v>10.27777777777778</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="G61">
-        <v>15.27777777777778</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="H61">
-        <v>10.27777777777778</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="I61">
-        <v>11.66666666666667</v>
+        <v>15.06849315068493</v>
       </c>
       <c r="J61">
-        <v>11.11111111111111</v>
+        <v>8.904109589041095</v>
       </c>
       <c r="K61">
-        <v>3.333333333333333</v>
+        <v>8.21917808219178</v>
       </c>
       <c r="L61">
-        <v>6.111111111111111</v>
+        <v>6.164383561643835</v>
       </c>
       <c r="M61">
-        <v>5.555555555555555</v>
+        <v>4.794520547945205</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2962,45 +3073,27 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62">
-        <v>11.48325358851675</v>
-      </c>
-      <c r="C62">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="D62">
-        <v>5.741626794258373</v>
-      </c>
-      <c r="E62">
-        <v>2.392344497607656</v>
-      </c>
-      <c r="F62">
-        <v>8.133971291866029</v>
-      </c>
-      <c r="G62">
-        <v>6.220095693779904</v>
-      </c>
       <c r="H62">
-        <v>5.741626794258373</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="I62">
-        <v>5.741626794258373</v>
+        <v>12.5</v>
       </c>
       <c r="J62">
-        <v>19.61722488038277</v>
+        <v>25</v>
       </c>
       <c r="K62">
-        <v>14.83253588516746</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L62">
-        <v>8.133971291866029</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="M62">
-        <v>6.698564593301436</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3009,44 +3102,44 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>10.14799154334038</v>
+        <v>4.484304932735426</v>
       </c>
       <c r="C63">
-        <v>8.245243128964059</v>
+        <v>7.623318385650224</v>
       </c>
       <c r="D63">
-        <v>9.090909090909092</v>
+        <v>5.829596412556054</v>
       </c>
       <c r="E63">
-        <v>4.228329809725158</v>
+        <v>9.865470852017937</v>
       </c>
       <c r="F63">
-        <v>7.822410147991543</v>
+        <v>5.829596412556054</v>
       </c>
       <c r="G63">
-        <v>4.862579281183932</v>
+        <v>3.587443946188341</v>
       </c>
       <c r="H63">
-        <v>5.07399577167019</v>
+        <v>8.071748878923767</v>
       </c>
       <c r="I63">
-        <v>2.325581395348837</v>
+        <v>8.520179372197308</v>
       </c>
       <c r="J63">
-        <v>13.53065539112051</v>
+        <v>15.24663677130045</v>
       </c>
       <c r="K63">
-        <v>11.83932346723044</v>
+        <v>6.726457399103139</v>
       </c>
       <c r="L63">
-        <v>13.95348837209302</v>
+        <v>14.79820627802691</v>
       </c>
       <c r="M63">
-        <v>8.879492600422834</v>
+        <v>9.417040358744394</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3055,44 +3148,44 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>9.73871733966746</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="C64">
-        <v>4.038004750593824</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D64">
-        <v>9.501187648456057</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="E64">
-        <v>6.175771971496437</v>
+        <v>3.478260869565217</v>
       </c>
       <c r="F64">
-        <v>8.31353919239905</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="G64">
-        <v>4.98812351543943</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="H64">
-        <v>4.750593824228028</v>
+        <v>3.478260869565217</v>
       </c>
       <c r="I64">
-        <v>3.087885985748219</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="J64">
-        <v>13.53919239904988</v>
+        <v>10.43478260869565</v>
       </c>
       <c r="K64">
-        <v>9.73871733966746</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="L64">
-        <v>13.77672209026128</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="M64">
-        <v>12.35154394299287</v>
+        <v>11.30434782608696</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3101,44 +3194,44 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>9.494949494949495</v>
+        <v>2.052785923753666</v>
       </c>
       <c r="C65">
-        <v>8.080808080808081</v>
+        <v>6.744868035190615</v>
       </c>
       <c r="D65">
-        <v>7.878787878787878</v>
+        <v>13.19648093841642</v>
       </c>
       <c r="E65">
-        <v>8.080808080808081</v>
+        <v>7.624633431085044</v>
       </c>
       <c r="F65">
-        <v>5.05050505050505</v>
+        <v>7.624633431085044</v>
       </c>
       <c r="G65">
-        <v>5.454545454545454</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="H65">
-        <v>7.878787878787878</v>
+        <v>8.211143695014663</v>
       </c>
       <c r="I65">
-        <v>6.868686868686869</v>
+        <v>5.865102639296188</v>
       </c>
       <c r="J65">
-        <v>10.50505050505051</v>
+        <v>9.970674486803519</v>
       </c>
       <c r="K65">
-        <v>8.888888888888889</v>
+        <v>12.02346041055718</v>
       </c>
       <c r="L65">
-        <v>9.696969696969697</v>
+        <v>8.211143695014663</v>
       </c>
       <c r="M65">
-        <v>12.12121212121212</v>
+        <v>8.797653958944283</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3147,44 +3240,44 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>9.565217391304348</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>9.565217391304348</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>7.82608695652174</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>5.217391304347826</v>
+        <v>10.5</v>
       </c>
       <c r="F66">
-        <v>5.217391304347826</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>4.347826086956522</v>
+        <v>11.5</v>
       </c>
       <c r="H66">
-        <v>4.347826086956522</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>9.565217391304348</v>
+        <v>12</v>
       </c>
       <c r="J66">
-        <v>13.91304347826087</v>
+        <v>11</v>
       </c>
       <c r="K66">
-        <v>13.04347826086956</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>6.086956521739131</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>11.30434782608696</v>
+        <v>6</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3286,44 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>2.127659574468085</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C67">
-        <v>3.191489361702128</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D67">
-        <v>14.36170212765958</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="E67">
-        <v>14.8936170212766</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="F67">
-        <v>16.48936170212766</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>10.63829787234043</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H67">
-        <v>6.382978723404255</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I67">
-        <v>8.51063829787234</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="J67">
-        <v>5.319148936170213</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="K67">
-        <v>5.319148936170213</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L67">
-        <v>6.382978723404255</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="M67">
-        <v>6.382978723404255</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3242,41 +3335,41 @@
         <v>6.451612903225806</v>
       </c>
       <c r="C68">
+        <v>5.376344086021505</v>
+      </c>
+      <c r="D68">
+        <v>9.13978494623656</v>
+      </c>
+      <c r="E68">
+        <v>11.55913978494624</v>
+      </c>
+      <c r="F68">
+        <v>10.48387096774194</v>
+      </c>
+      <c r="G68">
+        <v>6.989247311827956</v>
+      </c>
+      <c r="H68">
+        <v>12.36559139784946</v>
+      </c>
+      <c r="I68">
+        <v>10.75268817204301</v>
+      </c>
+      <c r="J68">
         <v>5.64516129032258</v>
       </c>
-      <c r="D68">
-        <v>8.870967741935484</v>
-      </c>
-      <c r="E68">
-        <v>7.258064516129033</v>
-      </c>
-      <c r="F68">
-        <v>7.258064516129033</v>
-      </c>
-      <c r="G68">
-        <v>7.258064516129033</v>
-      </c>
-      <c r="H68">
-        <v>8.870967741935484</v>
-      </c>
-      <c r="I68">
-        <v>12.09677419354839</v>
-      </c>
-      <c r="J68">
-        <v>12.09677419354839</v>
-      </c>
       <c r="K68">
-        <v>11.29032258064516</v>
+        <v>9.946236559139784</v>
       </c>
       <c r="L68">
-        <v>7.258064516129033</v>
+        <v>6.182795698924731</v>
       </c>
       <c r="M68">
-        <v>5.64516129032258</v>
+        <v>5.10752688172043</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3285,44 +3378,44 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>7.199999999999999</v>
+        <v>6.333333333333334</v>
       </c>
       <c r="C69">
-        <v>4.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>5.2</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E69">
-        <v>8.799999999999999</v>
+        <v>6.333333333333334</v>
       </c>
       <c r="F69">
-        <v>14</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="G69">
-        <v>12.8</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>12.4</v>
+        <v>9</v>
       </c>
       <c r="I69">
-        <v>9.199999999999999</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="J69">
-        <v>7.199999999999999</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="K69">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="L69">
-        <v>4.399999999999999</v>
+        <v>6.333333333333334</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3331,41 +3424,44 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>7.964601769911504</v>
+        <v>2.909090909090909</v>
       </c>
       <c r="C70">
-        <v>8.849557522123893</v>
+        <v>11.63636363636364</v>
       </c>
       <c r="D70">
-        <v>6.194690265486726</v>
+        <v>9.818181818181818</v>
       </c>
       <c r="E70">
-        <v>11.50442477876106</v>
+        <v>6.181818181818182</v>
       </c>
       <c r="F70">
-        <v>15.04424778761062</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="G70">
-        <v>10.61946902654867</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="H70">
-        <v>10.61946902654867</v>
+        <v>13.81818181818182</v>
       </c>
       <c r="I70">
-        <v>11.50442477876106</v>
+        <v>11.27272727272727</v>
       </c>
       <c r="J70">
-        <v>8.849557522123893</v>
+        <v>6.545454545454546</v>
       </c>
       <c r="K70">
-        <v>2.654867256637168</v>
+        <v>4.727272727272728</v>
       </c>
       <c r="L70">
-        <v>6.194690265486726</v>
+        <v>5.454545454545454</v>
+      </c>
+      <c r="M70">
+        <v>7.272727272727272</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3374,41 +3470,44 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>1.675977653631285</v>
+        <v>5.057471264367816</v>
       </c>
       <c r="C71">
-        <v>1.675977653631285</v>
+        <v>9.885057471264368</v>
       </c>
       <c r="D71">
-        <v>10.05586592178771</v>
+        <v>8.045977011494253</v>
       </c>
       <c r="E71">
-        <v>7.262569832402235</v>
+        <v>10.57471264367816</v>
       </c>
       <c r="F71">
-        <v>14.52513966480447</v>
+        <v>11.95402298850575</v>
       </c>
       <c r="G71">
-        <v>16.75977653631285</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="H71">
-        <v>24.58100558659218</v>
+        <v>7.586206896551724</v>
       </c>
       <c r="I71">
-        <v>15.08379888268156</v>
+        <v>9.885057471264368</v>
+      </c>
+      <c r="J71">
+        <v>9.195402298850574</v>
       </c>
       <c r="K71">
-        <v>1.675977653631285</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L71">
-        <v>1.675977653631285</v>
+        <v>7.35632183908046</v>
       </c>
       <c r="M71">
-        <v>5.027932960893855</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3417,44 +3516,44 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>0.5319148936170213</v>
+        <v>5.699481865284974</v>
       </c>
       <c r="C72">
-        <v>2.659574468085106</v>
+        <v>3.626943005181347</v>
       </c>
       <c r="D72">
-        <v>5.851063829787234</v>
+        <v>13.98963730569948</v>
       </c>
       <c r="E72">
-        <v>10.1063829787234</v>
+        <v>6.217616580310881</v>
       </c>
       <c r="F72">
-        <v>12.23404255319149</v>
+        <v>9.326424870466321</v>
       </c>
       <c r="G72">
-        <v>8.51063829787234</v>
+        <v>10.36269430051813</v>
       </c>
       <c r="H72">
-        <v>11.17021276595745</v>
+        <v>13.98963730569948</v>
       </c>
       <c r="I72">
-        <v>13.82978723404255</v>
+        <v>10.36269430051813</v>
       </c>
       <c r="J72">
-        <v>17.02127659574468</v>
+        <v>7.253886010362693</v>
       </c>
       <c r="K72">
-        <v>6.914893617021277</v>
+        <v>8.290155440414509</v>
       </c>
       <c r="L72">
-        <v>4.787234042553192</v>
+        <v>4.145077720207254</v>
       </c>
       <c r="M72">
-        <v>6.382978723404255</v>
+        <v>6.735751295336788</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3463,41 +3562,38 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="D73">
-        <v>11.11111111111111</v>
+        <v>8.333333333333332</v>
+      </c>
+      <c r="C73">
+        <v>8.333333333333332</v>
       </c>
       <c r="E73">
         <v>13.33333333333333</v>
       </c>
       <c r="F73">
-        <v>11.11111111111111</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="I73">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
         <v>6.666666666666667</v>
       </c>
-      <c r="H73">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="I73">
-        <v>18.88888888888889</v>
-      </c>
-      <c r="J73">
+      <c r="L73">
         <v>6.666666666666667</v>
       </c>
-      <c r="K73">
-        <v>8.888888888888889</v>
-      </c>
-      <c r="L73">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="M73">
-        <v>3.333333333333333</v>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3505,27 +3601,45 @@
       <c r="A74">
         <v>1</v>
       </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>11.42857142857143</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
       <c r="H74">
-        <v>16.66666666666666</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="I74">
-        <v>12.5</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="J74">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>20.83333333333334</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="L74">
-        <v>20.83333333333334</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="M74">
-        <v>4.166666666666666</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3534,44 +3648,44 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>4.484304932735426</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="C75">
-        <v>7.623318385650224</v>
+        <v>9.451219512195122</v>
       </c>
       <c r="D75">
-        <v>5.829596412556054</v>
+        <v>7.926829268292683</v>
       </c>
       <c r="E75">
-        <v>9.865470852017937</v>
+        <v>8.841463414634147</v>
       </c>
       <c r="F75">
-        <v>5.829596412556054</v>
+        <v>5.182926829268292</v>
       </c>
       <c r="G75">
-        <v>3.587443946188341</v>
+        <v>4.573170731707317</v>
       </c>
       <c r="H75">
-        <v>8.071748878923767</v>
+        <v>6.097560975609756</v>
       </c>
       <c r="I75">
-        <v>8.520179372197308</v>
+        <v>5.182926829268292</v>
       </c>
       <c r="J75">
-        <v>15.24663677130045</v>
+        <v>7.926829268292683</v>
       </c>
       <c r="K75">
-        <v>6.726457399103139</v>
+        <v>7.01219512195122</v>
       </c>
       <c r="L75">
-        <v>14.79820627802691</v>
+        <v>10.0609756097561</v>
       </c>
       <c r="M75">
-        <v>9.417040358744394</v>
+        <v>10.67073170731707</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3580,44 +3694,29 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>7.82608695652174</v>
+        <v>18.58407079646018</v>
       </c>
       <c r="C76">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="D76">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="E76">
-        <v>3.478260869565217</v>
-      </c>
-      <c r="F76">
-        <v>7.82608695652174</v>
-      </c>
-      <c r="G76">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="H76">
-        <v>3.478260869565217</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="I76">
-        <v>6.956521739130435</v>
+        <v>7.079646017699115</v>
       </c>
       <c r="J76">
-        <v>10.43478260869565</v>
+        <v>16.8141592920354</v>
       </c>
       <c r="K76">
-        <v>9.565217391304348</v>
+        <v>14.15929203539823</v>
       </c>
       <c r="L76">
-        <v>13.04347826086956</v>
+        <v>11.50442477876106</v>
       </c>
       <c r="M76">
-        <v>11.30434782608696</v>
+        <v>23.89380530973451</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3626,44 +3725,41 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>1.832460732984293</v>
-      </c>
-      <c r="C77">
-        <v>7.329842931937172</v>
+        <v>19.67213114754098</v>
       </c>
       <c r="D77">
-        <v>12.30366492146597</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="E77">
-        <v>8.900523560209423</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="F77">
-        <v>7.591623036649215</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="G77">
-        <v>8.638743455497382</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="H77">
-        <v>8.638743455497382</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="I77">
-        <v>5.49738219895288</v>
+        <v>9.836065573770492</v>
       </c>
       <c r="J77">
-        <v>9.68586387434555</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="K77">
-        <v>12.04188481675393</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L77">
-        <v>8.115183246073299</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="M77">
-        <v>9.424083769633508</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3671,45 +3767,39 @@
       <c r="A78">
         <v>5</v>
       </c>
-      <c r="B78">
-        <v>6.666666666666667</v>
-      </c>
       <c r="C78">
-        <v>6.333333333333334</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="E78">
-        <v>9.666666666666666</v>
-      </c>
-      <c r="F78">
-        <v>9.666666666666666</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="G78">
-        <v>8.333333333333332</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="H78">
-        <v>10.33333333333333</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="I78">
-        <v>9.666666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="J78">
-        <v>7.666666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K78">
-        <v>5.666666666666666</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L78">
-        <v>9</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3718,44 +3808,44 @@
         <v>6</v>
       </c>
       <c r="B79">
-        <v>6.666666666666667</v>
+        <v>9.692671394799055</v>
       </c>
       <c r="C79">
-        <v>1.666666666666667</v>
+        <v>11.34751773049645</v>
       </c>
       <c r="D79">
-        <v>10.55555555555556</v>
+        <v>7.328605200945626</v>
       </c>
       <c r="E79">
-        <v>9.444444444444445</v>
+        <v>9.219858156028367</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>7.092198581560284</v>
       </c>
       <c r="G79">
-        <v>13.33333333333333</v>
+        <v>8.274231678486997</v>
       </c>
       <c r="H79">
-        <v>11.11111111111111</v>
+        <v>11.5839243498818</v>
       </c>
       <c r="I79">
-        <v>10.55555555555556</v>
+        <v>8.747044917257684</v>
       </c>
       <c r="J79">
-        <v>9.444444444444445</v>
+        <v>6.146572104018913</v>
       </c>
       <c r="K79">
-        <v>6.666666666666667</v>
+        <v>7.801418439716312</v>
       </c>
       <c r="L79">
-        <v>6.111111111111111</v>
+        <v>5.91016548463357</v>
       </c>
       <c r="M79">
-        <v>4.444444444444445</v>
+        <v>6.855791962174941</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3764,44 +3854,44 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>6.235011990407674</v>
+        <v>8.171206225680933</v>
       </c>
       <c r="C80">
-        <v>5.995203836930456</v>
+        <v>3.696498054474708</v>
       </c>
       <c r="D80">
-        <v>9.112709832134293</v>
+        <v>11.284046692607</v>
       </c>
       <c r="E80">
-        <v>11.27098321342926</v>
+        <v>12.06225680933852</v>
       </c>
       <c r="F80">
-        <v>11.99040767386091</v>
+        <v>12.45136186770428</v>
       </c>
       <c r="G80">
-        <v>7.434052757793765</v>
+        <v>10.70038910505837</v>
       </c>
       <c r="H80">
-        <v>11.75059952038369</v>
+        <v>8.365758754863812</v>
       </c>
       <c r="I80">
-        <v>7.434052757793765</v>
+        <v>7.587548638132295</v>
       </c>
       <c r="J80">
-        <v>6.474820143884892</v>
+        <v>8.754863813229571</v>
       </c>
       <c r="K80">
-        <v>7.194244604316546</v>
+        <v>7.198443579766536</v>
       </c>
       <c r="L80">
-        <v>6.474820143884892</v>
+        <v>4.863813229571985</v>
       </c>
       <c r="M80">
-        <v>8.633093525179856</v>
+        <v>4.863813229571985</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3810,44 +3900,41 @@
         <v>8</v>
       </c>
       <c r="B81">
-        <v>13.51351351351351</v>
+        <v>10.73825503355705</v>
       </c>
       <c r="C81">
-        <v>6.306306306306306</v>
+        <v>6.711409395973154</v>
       </c>
       <c r="D81">
-        <v>5.405405405405405</v>
+        <v>8.724832214765101</v>
       </c>
       <c r="E81">
-        <v>6.306306306306306</v>
+        <v>10.06711409395973</v>
       </c>
       <c r="F81">
-        <v>10.81081081081081</v>
+        <v>4.697986577181208</v>
       </c>
       <c r="G81">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="H81">
-        <v>10.81081081081081</v>
+        <v>4.026845637583892</v>
       </c>
       <c r="I81">
-        <v>9.009009009009009</v>
+        <v>15.43624161073826</v>
       </c>
       <c r="J81">
-        <v>10.81081081081081</v>
+        <v>6.711409395973154</v>
       </c>
       <c r="K81">
-        <v>7.207207207207207</v>
+        <v>9.395973154362416</v>
       </c>
       <c r="L81">
-        <v>9.90990990990991</v>
+        <v>9.395973154362416</v>
       </c>
       <c r="M81">
-        <v>7.207207207207207</v>
+        <v>14.09395973154362</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3856,44 +3943,44 @@
         <v>9</v>
       </c>
       <c r="B82">
-        <v>4.221635883905013</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="C82">
-        <v>8.707124010554089</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="D82">
-        <v>8.179419525065963</v>
+        <v>5.913978494623656</v>
       </c>
       <c r="E82">
-        <v>6.860158311345646</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="F82">
-        <v>10.55408970976253</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="G82">
-        <v>11.60949868073879</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="H82">
-        <v>13.72031662269129</v>
+        <v>13.44086021505376</v>
       </c>
       <c r="I82">
-        <v>13.45646437994723</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="J82">
-        <v>7.651715039577836</v>
+        <v>10.21505376344086</v>
       </c>
       <c r="K82">
-        <v>4.485488126649076</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="L82">
-        <v>5.013192612137203</v>
+        <v>6.989247311827956</v>
       </c>
       <c r="M82">
-        <v>5.540897097625329</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3902,44 +3989,44 @@
         <v>10</v>
       </c>
       <c r="B83">
-        <v>4.605263157894736</v>
+        <v>3.886010362694301</v>
       </c>
       <c r="C83">
-        <v>9.210526315789473</v>
+        <v>4.66321243523316</v>
       </c>
       <c r="D83">
-        <v>7.675438596491229</v>
+        <v>8.808290155440414</v>
       </c>
       <c r="E83">
-        <v>10.52631578947368</v>
+        <v>12.43523316062176</v>
       </c>
       <c r="F83">
-        <v>10.52631578947368</v>
+        <v>12.69430051813472</v>
       </c>
       <c r="G83">
-        <v>8.114035087719298</v>
+        <v>8.808290155440414</v>
       </c>
       <c r="H83">
-        <v>8.114035087719298</v>
+        <v>11.91709844559585</v>
       </c>
       <c r="I83">
-        <v>10.52631578947368</v>
+        <v>13.73056994818653</v>
       </c>
       <c r="J83">
-        <v>8.771929824561402</v>
+        <v>8.549222797927461</v>
       </c>
       <c r="K83">
-        <v>7.675438596491229</v>
+        <v>6.476683937823833</v>
       </c>
       <c r="L83">
-        <v>7.017543859649122</v>
+        <v>4.404145077720207</v>
       </c>
       <c r="M83">
-        <v>7.236842105263158</v>
+        <v>3.626943005181347</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3948,44 +4035,32 @@
         <v>11</v>
       </c>
       <c r="B84">
-        <v>4.522613065326634</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="C84">
-        <v>3.517587939698493</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>12.56281407035176</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E84">
-        <v>6.532663316582915</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F84">
-        <v>8.040201005025125</v>
-      </c>
-      <c r="G84">
-        <v>13.06532663316583</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>12.06030150753769</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I84">
-        <v>10.05025125628141</v>
-      </c>
-      <c r="J84">
-        <v>9.547738693467336</v>
-      </c>
-      <c r="K84">
-        <v>9.045226130653267</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L84">
-        <v>4.020100502512562</v>
-      </c>
-      <c r="M84">
-        <v>7.035175879396985</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3994,539 +4069,44 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>8.620689655172415</v>
+        <v>6.470588235294119</v>
       </c>
       <c r="C85">
-        <v>4.310344827586207</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="D85">
-        <v>2.586206896551724</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="E85">
-        <v>9.482758620689655</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="F85">
-        <v>12.06896551724138</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>16.37931034482759</v>
+        <v>12.94117647058824</v>
       </c>
       <c r="H85">
-        <v>7.758620689655173</v>
+        <v>12.35294117647059</v>
       </c>
       <c r="I85">
-        <v>12.06896551724138</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="J85">
-        <v>8.620689655172415</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="K85">
-        <v>6.896551724137931</v>
+        <v>19.41176470588236</v>
       </c>
       <c r="L85">
-        <v>7.758620689655173</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="M85">
-        <v>3.448275862068965</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2012-2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>10.9375</v>
-      </c>
-      <c r="C86">
-        <v>10.9375</v>
-      </c>
-      <c r="D86">
-        <v>12.5</v>
-      </c>
-      <c r="E86">
-        <v>10.9375</v>
-      </c>
-      <c r="F86">
-        <v>7.8125</v>
-      </c>
-      <c r="G86">
-        <v>10.9375</v>
-      </c>
-      <c r="H86">
-        <v>8.59375</v>
-      </c>
-      <c r="I86">
-        <v>6.25</v>
-      </c>
-      <c r="J86">
-        <v>5.46875</v>
-      </c>
-      <c r="K86">
-        <v>13.28125</v>
-      </c>
-      <c r="L86">
-        <v>2.34375</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="C87">
-        <v>9.451219512195122</v>
-      </c>
-      <c r="D87">
-        <v>7.926829268292683</v>
-      </c>
-      <c r="E87">
-        <v>8.841463414634147</v>
-      </c>
-      <c r="F87">
-        <v>5.182926829268292</v>
-      </c>
-      <c r="G87">
-        <v>4.573170731707317</v>
-      </c>
-      <c r="H87">
-        <v>6.097560975609756</v>
-      </c>
-      <c r="I87">
-        <v>5.182926829268292</v>
-      </c>
-      <c r="J87">
-        <v>7.926829268292683</v>
-      </c>
-      <c r="K87">
-        <v>7.01219512195122</v>
-      </c>
-      <c r="L87">
-        <v>10.0609756097561</v>
-      </c>
-      <c r="M87">
-        <v>10.67073170731707</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>18.75</v>
-      </c>
-      <c r="C88">
-        <v>8.035714285714286</v>
-      </c>
-      <c r="I88">
-        <v>6.25</v>
-      </c>
-      <c r="J88">
-        <v>16.96428571428572</v>
-      </c>
-      <c r="K88">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L88">
-        <v>11.60714285714286</v>
-      </c>
-      <c r="M88">
-        <v>24.10714285714286</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="D89">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="E89">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="F89">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="M89">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>5</v>
-      </c>
-      <c r="C90">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="D90">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="E90">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="G90">
-        <v>5.128205128205128</v>
-      </c>
-      <c r="H90">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="I90">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="J90">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="K90">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="L90">
-        <v>10.25641025641026</v>
-      </c>
-      <c r="M90">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="B91">
-        <v>10.62176165803109</v>
-      </c>
-      <c r="C91">
-        <v>12.43523316062176</v>
-      </c>
-      <c r="D91">
-        <v>6.735751295336788</v>
-      </c>
-      <c r="E91">
-        <v>7.512953367875648</v>
-      </c>
-      <c r="F91">
-        <v>7.253886010362693</v>
-      </c>
-      <c r="G91">
-        <v>8.808290155440414</v>
-      </c>
-      <c r="H91">
-        <v>11.39896373056995</v>
-      </c>
-      <c r="I91">
-        <v>8.549222797927461</v>
-      </c>
-      <c r="J91">
-        <v>6.735751295336788</v>
-      </c>
-      <c r="K91">
-        <v>6.735751295336788</v>
-      </c>
-      <c r="L91">
-        <v>5.958549222797927</v>
-      </c>
-      <c r="M91">
-        <v>7.253886010362693</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>7</v>
-      </c>
-      <c r="B92">
-        <v>9.72762645914397</v>
-      </c>
-      <c r="C92">
-        <v>5.836575875486381</v>
-      </c>
-      <c r="D92">
-        <v>10.50583657587549</v>
-      </c>
-      <c r="E92">
-        <v>11.47859922178988</v>
-      </c>
-      <c r="F92">
-        <v>10.70038910505837</v>
-      </c>
-      <c r="G92">
-        <v>8.365758754863812</v>
-      </c>
-      <c r="H92">
-        <v>8.365758754863812</v>
-      </c>
-      <c r="I92">
-        <v>8.560311284046692</v>
-      </c>
-      <c r="J92">
-        <v>6.809338521400778</v>
-      </c>
-      <c r="K92">
-        <v>8.171206225680933</v>
-      </c>
-      <c r="L92">
-        <v>6.614785992217899</v>
-      </c>
-      <c r="M92">
-        <v>4.863813229571985</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <v>6.430868167202572</v>
-      </c>
-      <c r="C93">
-        <v>8.681672025723474</v>
-      </c>
-      <c r="D93">
-        <v>9.003215434083602</v>
-      </c>
-      <c r="E93">
-        <v>8.681672025723474</v>
-      </c>
-      <c r="F93">
-        <v>7.395498392282958</v>
-      </c>
-      <c r="G93">
-        <v>6.752411575562702</v>
-      </c>
-      <c r="H93">
-        <v>4.823151125401929</v>
-      </c>
-      <c r="I93">
-        <v>12.21864951768489</v>
-      </c>
-      <c r="J93">
-        <v>9.646302250803858</v>
-      </c>
-      <c r="K93">
-        <v>12.54019292604502</v>
-      </c>
-      <c r="L93">
-        <v>5.787781350482315</v>
-      </c>
-      <c r="M93">
-        <v>8.038585209003216</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94">
-        <v>3.92156862745098</v>
-      </c>
-      <c r="C94">
-        <v>6.535947712418301</v>
-      </c>
-      <c r="D94">
-        <v>5.228758169934641</v>
-      </c>
-      <c r="E94">
-        <v>9.15032679738562</v>
-      </c>
-      <c r="F94">
-        <v>9.15032679738562</v>
-      </c>
-      <c r="G94">
-        <v>10.45751633986928</v>
-      </c>
-      <c r="H94">
-        <v>12.41830065359477</v>
-      </c>
-      <c r="I94">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="J94">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="K94">
-        <v>7.18954248366013</v>
-      </c>
-      <c r="L94">
-        <v>7.18954248366013</v>
-      </c>
-      <c r="M94">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="C95">
-        <v>9.411764705882353</v>
-      </c>
-      <c r="D95">
-        <v>8.627450980392156</v>
-      </c>
-      <c r="E95">
-        <v>10.58823529411765</v>
-      </c>
-      <c r="F95">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="G95">
-        <v>4.705882352941177</v>
-      </c>
-      <c r="H95">
-        <v>8.235294117647058</v>
-      </c>
-      <c r="I95">
-        <v>8.627450980392156</v>
-      </c>
-      <c r="J95">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="K95">
-        <v>9.019607843137255</v>
-      </c>
-      <c r="L95">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="M95">
-        <v>5.490196078431373</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>11</v>
-      </c>
-      <c r="B96">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="C96">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="D96">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="E96">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="F96">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="H96">
-        <v>11.9047619047619</v>
-      </c>
-      <c r="I96">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="K96">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L96">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>12</v>
-      </c>
-      <c r="B97">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>12</v>
-      </c>
-      <c r="G97">
-        <v>11</v>
-      </c>
-      <c r="H97">
-        <v>11</v>
-      </c>
-      <c r="I97">
-        <v>4</v>
-      </c>
-      <c r="J97">
-        <v>9</v>
-      </c>
-      <c r="K97">
-        <v>18</v>
-      </c>
-      <c r="L97">
-        <v>8</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
